--- a/dados/renov vendas_online.xlsx
+++ b/dados/renov vendas_online.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:625005333#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:625005333#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -546,17 +586,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -571,17 +621,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:625005333#searchVariation=MLB24834408&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:625005333#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -596,167 +656,229 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:625005333#searchVariation=MLB27687422&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:625005333#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.07</v>
+        <v>493.42</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>FONTE 70A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>493.42</v>
+        <v>402.79</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>FONTE 40A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>402.79</v>
+        <v>410.97</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Azul 1200metros</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.43000000000001</v>
+        <v>681.83</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2025993683-controle-longa-distncia-jfa-k1200-azul-1200metros-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>410.97</v>
+        <v>443.07</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Controle Longa Distância Jfa K1200 Azul 1200metros</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>681.83</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2025993683-controle-longa-distncia-jfa-k1200-azul-1200metros-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -771,17 +893,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -796,17 +924,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -821,17 +955,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166616652-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166616652-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -846,367 +990,485 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>94</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
+          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>694.8200000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 Preto </t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.90000000000001</v>
+        <v>443.07</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707915746-controle-longa-distancia-jfa-acqua-1200-preto-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3141355590-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 40a</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>443.07</v>
+        <v>433</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3141355590-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164437449-fonte-automotiva-carregador-de-bateria-jfa-storm-40a-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+          <t>Controle Longa Distancia Redline Jfa K1200 Vermelho 1200m</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.90000000000001</v>
+        <v>108.72</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1767934159-controle-longa-distancia-redline-jfa-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 40a</t>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>433</v>
+        <v>750.49</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164437449-fonte-automotiva-carregador-de-bateria-jfa-storm-40a-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3358486301-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>750.49</v>
+        <v>573.36</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3358486301-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>573.36</v>
+        <v>399</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>399</v>
+        <v>410.98</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3359181941-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>410.98</v>
+        <v>99.8</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3359181941-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Redline Jfa K1200 Vermelho 1200m</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.72</v>
+        <v>94</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1767934159-controle-longa-distancia-redline-jfa-k1200-vermelho-1200m-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 Preto </t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>408.73</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707915746-controle-longa-distancia-jfa-acqua-1200-preto-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.8</v>
+        <v>384.16</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>384.16</v>
+        <v>408.73</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1483,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1514,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D31e85a72-8163-4912-a55b-2d52dac914e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
         </is>
       </c>
     </row>

--- a/dados/renov vendas_online.xlsx
+++ b/dados/renov vendas_online.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>422.93</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -501,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>805.59</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -536,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>634.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -566,28 +566,28 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:625005333#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>539.74</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -601,12 +601,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:625005333#searchVariation=MLB22144397&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>624.33</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:625005333#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:625005333#searchVariation=MLB24834408&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
@@ -651,13 +651,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -672,23 +672,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:625005333#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:625005333#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>443.07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -707,23 +707,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>493.42</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -742,29 +742,25 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>410.97</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa K1200 Azul 1200metros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -777,23 +773,23 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2025993683-controle-longa-distncia-jfa-k1200-azul-1200metros-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>402.79</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -802,7 +798,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -812,63 +808,63 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>410.97</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Azul 1200metros</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>69.43000000000001</v>
-      </c>
-      <c r="C13" t="inlineStr">
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 Preto </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C13" t="n">
+        <v>87.90000000000001</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -878,28 +874,32 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2025993683-controle-longa-distncia-jfa-k1200-azul-1200metros-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707915746-controle-longa-distancia-jfa-acqua-1200-preto-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>379</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>681.83</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -909,23 +909,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>536.25</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>379</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -940,73 +940,77 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=ddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa 200a Storm</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>536.25</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166616652-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>94.81</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Fonte Automotiva Carregador De Bateria Jfa 200a Storm</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166616652-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
@@ -1016,14 +1020,14 @@
           <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1041,38 +1045,38 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C19" t="inlineStr">
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C19" t="n">
+        <v>94</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
@@ -1082,14 +1086,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>443.07</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1107,7 +1111,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3141355590-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3141355590-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
@@ -1117,14 +1121,14 @@
           <t>Fonte Automotiva Carregador De Bateria Jfa Storm 40a</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>433</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1132,7 +1136,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1142,25 +1146,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164437449-fonte-automotiva-carregador-de-bateria-jfa-storm-40a-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164437449-fonte-automotiva-carregador-de-bateria-jfa-storm-40a-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Redline Jfa K1200 Vermelho 1200m</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>108.72</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>750.49</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1173,27 +1181,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1767934159-controle-longa-distancia-redline-jfa-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3358486301-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>750.49</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>573.36</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1208,29 +1216,25 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3358486301-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>573.36</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>399</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1243,25 +1247,29 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>399</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>410.98</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1274,23 +1282,23 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3359181941-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>410.98</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distancia Redline Jfa K1200 Vermelho 1200m</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>108.72</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1305,28 +1313,32 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3359181941-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1767934159-controle-longa-distancia-redline-jfa-k1200-vermelho-1200m-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>408.73</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1336,54 +1348,54 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>94</v>
-      </c>
-      <c r="C28" t="inlineStr">
+          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C28" t="n">
+        <v>78.90000000000001</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 Preto </t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="C29" t="inlineStr">
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C29" t="n">
+        <v>94.81</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1393,37 +1405,33 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707915746-controle-longa-distancia-jfa-acqua-1200-preto-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>384.16</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1433,27 +1441,27 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>408.73</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>384.16</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1468,7 +1476,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
@@ -1478,13 +1486,13 @@
           <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>104.9</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1499,7 +1507,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>
@@ -1509,13 +1517,13 @@
           <t>Controle Longa Distância Jfa K1200 Preto 1200metros</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1530,7 +1538,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dddeb6b01-5702-4301-a421-3544cdc03148</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
         </is>
       </c>
     </row>

--- a/dados/renov vendas_online.xlsx
+++ b/dados/renov vendas_online.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>422.93</v>
+        <v>805.59</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -501,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>805.59</v>
+        <v>499.46</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:625005333#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>634.4</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,23 +571,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:625005333#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>539.74</v>
+        <v>634.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -601,37 +601,33 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:625005333#searchVariation=MLB22144397&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,54 +637,58 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:625005333#searchVariation=MLB24834408&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 120a</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:625005333#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166221329-fonte-automotiva-carregador-de-bateria-jfa-storm-120a-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>443.07</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -702,12 +702,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
@@ -742,25 +742,29 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Azul 1200metros</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>69.43000000000001</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -773,62 +777,62 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2025993683-controle-longa-distncia-jfa-k1200-azul-1200metros-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707938684-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>402.79</v>
+        <v>410.97</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>410.97</v>
+        <v>681.83</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -838,59 +842,63 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 Preto </t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>536.26</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707915746-controle-longa-distancia-jfa-acqua-1200-preto-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa 200a Storm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>681.83</v>
+        <v>845.87</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -899,24 +907,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166616652-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -925,7 +933,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -935,32 +943,32 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>536.25</v>
+        <v>69</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -975,27 +983,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3770127261-controle-longa-distncia-jfa-k600-completo-preto-e-cinza-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa 200a Storm</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto E Azul</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>845.87</v>
+        <v>69</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1005,28 +1013,28 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166616652-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3770129133-controle-remoto-longa-distancia-jfa-k600-preto-e-azul-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>694.8200000000001</v>
+        <v>473.28</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1035,7 +1043,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1045,25 +1053,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>94</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1076,23 +1088,23 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>443.07</v>
+        <v>433</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1101,7 +1113,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1111,23 +1123,23 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3141355590-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 40a</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 70a</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>433</v>
+        <v>523.63</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1136,7 +1148,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1146,23 +1158,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164437449-fonte-automotiva-carregador-de-bateria-jfa-storm-40a-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2165541433-fonte-automotiva-carregador-de-bateria-jfa-storm-70a-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
+          <t>Controle Longa Distância Jfa K1200 Azul 1200metros</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>750.49</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1181,27 +1193,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3358486301-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2025993683-controle-longa-distncia-jfa-k1200-azul-1200metros-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+          <t xml:space="preserve">Controle Jfa Longa Distância K1200 Azul </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>573.36</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1211,30 +1223,34 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2749288834-controle-jfa-longa-distncia-k1200-azul-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>399</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>750.49</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1247,23 +1263,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3358486301-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>410.98</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1272,7 +1288,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1282,25 +1298,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3359181941-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Redline Jfa K1200 Vermelho 1200m</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>108.72</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>573.36</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1313,27 +1333,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1767934159-controle-longa-distancia-redline-jfa-k1200-vermelho-1200m-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>408.73</v>
+        <v>66.5</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1348,25 +1368,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>384.16</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1379,28 +1403,32 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>94.81</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>408.73</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1410,25 +1438,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>79.8</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1441,23 +1473,23 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>384.16</v>
+        <v>80.75</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1466,7 +1498,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1476,7 +1508,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
@@ -1488,13 +1520,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1507,38 +1543,147 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1869254561-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>536.25</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3749270202-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3141381223-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa K1200 Preto 1200metros</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4bbc6b5a-5c2c-400a-9371-6abc72427067</t>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
         </is>
       </c>
     </row>

--- a/dados/renov vendas_online.xlsx
+++ b/dados/renov vendas_online.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1217 +483,1739 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>805.59</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>539.74</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:625005333#searchVariation=MLB22144397&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>499.46</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:625005333#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:625005333#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>78.90000000000001</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:625005333#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707938684-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>634.4</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 120a</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>674.6799999999999</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166221329-fonte-automotiva-carregador-de-bateria-jfa-storm-120a-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>694.8200000000001</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>93.81</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:625005333#searchVariation=MLB28357019&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>493.42</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 120a</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166221329-fonte-automotiva-carregador-de-bateria-jfa-storm-120a-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>78.90000000000001</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707938684-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>410.97</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>681.83</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>536.26</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 70a</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>523.63</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2165541433-fonte-automotiva-carregador-de-bateria-jfa-storm-70a-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa 200a Storm</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>845.87</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>536.26</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166616652-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>399</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>69</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>399</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3770127261-controle-longa-distncia-jfa-k600-completo-preto-e-cinza-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto E Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>69</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Redline Vermelho 1200m</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>110.69</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3770129133-controle-remoto-longa-distancia-jfa-k600-preto-e-azul-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1767940943-controle-longa-distancia-jfa-k1200-redline-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>473.28</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>410.98</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3359181941-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>443.07</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>750.49</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3358486301-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>433</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Jfa Longa Distância K1200 Azul </t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>53.2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=b77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2749288834-controle-jfa-longa-distncia-k1200-azul-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 70a</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>523.63</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>573.36</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2165541433-fonte-automotiva-carregador-de-bateria-jfa-storm-70a-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Azul 1200metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>67.15000000000001</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>408.73</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2025993683-controle-longa-distncia-jfa-k1200-azul-1200metros-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distância K1200 Azul </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2749288834-controle-jfa-longa-distncia-k1200-azul-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>750.49</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>384.16</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3358486301-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>78.84999999999999</v>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>573.36</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>80.75</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="n">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>384.16</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>55.89</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3770127261-controle-longa-distncia-jfa-k600-completo-preto-e-cinza-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>408.73</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Voltimetro E Sequenciador Digital Jfa Vs5hi Altabaixa Tensão</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4395841240-voltimetro-e-sequenciador-digital-jfa-vs5hi-altabaixa-tenso-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>79.8</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Voltimetro E Sequenciador Digital Jfa Vs5hi Altabaixa Tensão</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4395828588-voltimetro-e-sequenciador-digital-jfa-vs5hi-altabaixa-tenso-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>80.75</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>58.65</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:625005333#searchVariation=MLB27373663&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="n">
+        <v>62.33</v>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1869254561-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>63.12</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>845.87</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1869254561-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>536.25</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749270202-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>422.93</v>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3141381223-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>433</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>536.25</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3749270202-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador De Bateria Jfa 200a Storm</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166616431-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3141381223-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>renov vendas_online</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa K1200 Preto 1200metros</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="E40" t="n">
         <v>61.75</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db77b3d7f-6a08-4e81-84fb-67843faea8fc</t>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
         </is>
       </c>
     </row>

--- a/dados/renov vendas_online.xlsx
+++ b/dados/renov vendas_online.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>539.74</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:625005333#searchVariation=MLB22144397&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,25 +538,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>624.33</v>
+        <v>62.33</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:625005333#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1869254561-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,42 +583,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>67.15000000000001</v>
+        <v>634.4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707938684-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,16 +628,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>634.4</v>
+        <v>443.07</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -651,19 +651,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Voltimetro E Sequenciador Digital Jfa Vs5hi Altabaixa Tensão</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -682,12 +682,12 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>379</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -697,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4395828588-voltimetro-e-sequenciador-digital-jfa-vs5hi-altabaixa-tenso-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,42 +714,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>493.42</v>
+        <v>402.14</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>93.81</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -777,24 +777,24 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:625005333#searchVariation=MLB28357019&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707938684-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,16 +804,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 120a</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>674.6799999999999</v>
+        <v>845.87</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -832,14 +832,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166221329-fonte-automotiva-carregador-de-bateria-jfa-storm-120a-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,25 +849,21 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
+          <t>Voltimetro E Sequenciador Digital Jfa Vs5hi Altabaixa Tensão</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -877,14 +873,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4395841240-voltimetro-e-sequenciador-digital-jfa-vs5hi-altabaixa-tenso-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,7 +890,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -903,7 +899,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>410.97</v>
+        <v>402.14</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -912,7 +908,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -922,14 +918,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3359181941-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,20 +935,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>681.83</v>
+        <v>55.89</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -967,14 +963,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3770127261-controle-longa-distncia-jfa-k600-completo-preto-e-cinza-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,16 +980,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 70a</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>523.63</v>
+        <v>433</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1012,14 +1008,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2165541433-fonte-automotiva-carregador-de-bateria-jfa-storm-70a-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,16 +1025,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 120a</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>536.26</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1047,24 +1043,24 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166221329-fonte-automotiva-carregador-de-bateria-jfa-storm-120a-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,25 +1070,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>66.5</v>
+        <v>493.42</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1102,14 +1098,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,38 +1115,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>399</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,20 +1160,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Redline Vermelho 1200m</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>110.69</v>
+        <v>422.93</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1188,14 +1188,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1767940943-controle-longa-distancia-jfa-k1200-redline-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3141381223-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1205,16 +1205,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>410.98</v>
+        <v>738.22</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1233,14 +1233,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3359181941-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1250,42 +1250,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>750.49</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3358486301-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1295,25 +1291,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distância K1200 Azul </t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa 200a Storm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.2</v>
+        <v>805.59</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1323,14 +1319,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2749288834-controle-jfa-longa-distncia-k1200-azul-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166616431-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1340,16 +1336,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 70a</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>573.36</v>
+        <v>523.63</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1358,7 +1354,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1368,14 +1364,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2165541433-fonte-automotiva-carregador-de-bateria-jfa-storm-70a-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1394,11 +1390,11 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>408.73</v>
+        <v>421</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1413,14 +1409,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1430,20 +1426,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>78.84999999999999</v>
+        <v>473.28</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1458,14 +1454,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,16 +1471,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>384.16</v>
+        <v>552.35</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1503,14 +1499,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1520,16 +1516,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>79.8</v>
+        <v>552.35</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1548,14 +1544,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749270202-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1565,16 +1561,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>80.75</v>
+        <v>590.5599999999999</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1583,24 +1579,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1610,7 +1606,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
+          <t xml:space="preserve">Controle Jfa Longa Distância K1200 Azul </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1619,7 +1615,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>67.15000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1628,7 +1624,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1638,14 +1634,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2749288834-controle-jfa-longa-distncia-k1200-azul-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1655,20 +1651,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>55.89</v>
+        <v>93.81</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1683,14 +1679,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3770127261-controle-longa-distncia-jfa-k600-completo-preto-e-cinza-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:625005333#searchVariation=MLB28357019&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1700,18 +1696,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Voltimetro E Sequenciador Digital Jfa Vs5hi Altabaixa Tensão</t>
+          <t>Controle Longa Distância Jfa K1200 Preto 1200metros</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1719,19 +1719,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4395841240-voltimetro-e-sequenciador-digital-jfa-vs5hi-altabaixa-tenso-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1741,18 +1741,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Voltimetro E Sequenciador Digital Jfa Vs5hi Altabaixa Tensão</t>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>702.29</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1765,14 +1769,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4395828588-voltimetro-e-sequenciador-digital-jfa-vs5hi-altabaixa-tenso-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3747472510-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1782,16 +1786,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>58.65</v>
+        <v>375.9</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1810,14 +1814,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:625005333#searchVariation=MLB27373663&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1827,22 +1831,18 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>62.33</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1850,19 +1850,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1869254561-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1872,42 +1872,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>845.87</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1917,20 +1917,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>443.07</v>
+        <v>99.8</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1940,19 +1940,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1962,20 +1962,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>473.28</v>
+        <v>94.81</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2007,20 +2007,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>433</v>
+        <v>94</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2035,14 +2035,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=d6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2052,20 +2052,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+          <t>Controle Longa Distancia Jfa K1200 Redline Vermelho 1200m</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>536.25</v>
+        <v>110.69</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2080,142 +2080,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749270202-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>renov vendas_online</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa 200a Storm</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166616431-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>renov vendas_online</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3141381223-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>renov vendas_online</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 Preto 1200metros</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd6f5a309-d615-4aa1-b797-13a7d9d1399c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1767940943-controle-longa-distancia-jfa-k1200-redline-vermelho-1200m-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
         </is>
       </c>
     </row>

--- a/dados/renov vendas_online.xlsx
+++ b/dados/renov vendas_online.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,25 +493,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
+          <t>Controle Longa Distância Jfa K1200 Azul 1200metros</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>694.8200000000001</v>
+        <v>65.48</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2025993683-controle-longa-distncia-jfa-k1200-azul-1200metros-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>62.33</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1869254561-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:625005333#wid=MLB3596144903&amp;sid=search&amp;searchVariation=MLB28357019&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Para Caixa Bob</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>634.4</v>
+        <v>715.66</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:625005333#searchVariation=MLB21392652&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2750562012-fonte-carregador-jfa-bob-storm-200a-para-caixa-bob-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +628,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>443.07</v>
+        <v>514.4400000000001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -651,19 +651,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#searchVariation=MLB21562641&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:625005333#wid=MLB3676670840&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,38 +673,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Voltimetro E Sequenciador Digital Jfa Vs5hi Altabaixa Tensão</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>402.13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4395828588-voltimetro-e-sequenciador-digital-jfa-vs5hi-altabaixa-tenso-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3359181941-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,42 +718,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>402.14</v>
+        <v>414.87</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:625005333#searchVariation=MLB23456525&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#wid=MLB3331511099&amp;sid=search&amp;searchVariation=MLB22569833&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,7 +763,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
+          <t>Controle Longa Distância Jfa K1200 Preto 1200metros</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -768,16 +772,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>78.90000000000001</v>
+        <v>62.1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -787,14 +791,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707938684-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1769566738-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,20 +808,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>845.87</v>
+        <v>539.34</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -832,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#searchVariation=MLB21348561&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#wid=MLB3676645132&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,21 +853,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Voltimetro E Sequenciador Digital Jfa Vs5hi Altabaixa Tensão</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -873,14 +881,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4395841240-voltimetro-e-sequenciador-digital-jfa-vs5hi-altabaixa-tenso-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707938684-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,42 +898,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>402.14</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3359181941-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:625005333#wid=MLB3395228309&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,20 +943,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>55.89</v>
+        <v>487.48</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -958,19 +966,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3770127261-controle-longa-distncia-jfa-k600-completo-preto-e-cinza-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#wid=MLB3366407215&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -980,20 +988,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>433</v>
+        <v>61.87</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1003,19 +1011,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:625005333#searchVariation=MLB22569833&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,25 +1033,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 120a</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>674.6799999999999</v>
+        <v>590.55</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1053,14 +1061,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166221329-fonte-automotiva-carregador-de-bateria-jfa-storm-120a-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,42 +1078,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>493.42</v>
+        <v>738.21</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:625005333#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#wid=MLB3470089347&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,7 +1123,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1124,7 +1132,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>78.90000000000001</v>
+        <v>66.27</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1143,14 +1151,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,20 +1168,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 40a</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>422.93</v>
+        <v>445.98</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1183,19 +1191,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3141381223-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164437449-fonte-automotiva-carregador-de-bateria-jfa-storm-40a-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1205,16 +1213,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>738.22</v>
+        <v>871.24</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1223,7 +1231,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1233,14 +1241,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:625005333#searchVariation=MLB24154371&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:625005333#wid=MLB3772535304&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1250,21 +1258,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t xml:space="preserve">Controle Jfa Longa Distância K1200 Azul </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>379</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+        <v>67.06</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1274,14 +1286,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#searchVariation=MLB33435981&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2749288834-controle-jfa-longa-distncia-k1200-azul-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1291,20 +1303,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa 200a Storm</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>805.59</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1314,19 +1326,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166616431-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1336,20 +1348,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 70a</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>523.63</v>
+        <v>456.36</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1364,14 +1376,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2165541433-fonte-automotiva-carregador-de-bateria-jfa-storm-70a-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:625005333#wid=MLB3366437561&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1381,22 +1393,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
+          <t>Voltimetro E Sequenciador Digital Jfa Vs5hi Altabaixa Tensão</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>421</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>71.01000000000001</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1404,19 +1412,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4395841240-voltimetro-e-sequenciador-digital-jfa-vs5hi-altabaixa-tenso-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1426,25 +1434,21 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>379.05</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1454,14 +1458,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:625005333#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:625005333#wid=MLB4471784672&amp;sid=search&amp;searchVariation=MLB33435981&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1471,25 +1475,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>552.35</v>
+        <v>49.7</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1499,14 +1503,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:625005333#searchVariation=MLB23998473&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2749278097-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1516,25 +1520,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>552.35</v>
+        <v>58.65</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1544,14 +1548,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749270202-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3770127261-controle-longa-distncia-jfa-k600-completo-preto-e-cinza-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1561,16 +1565,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>590.5599999999999</v>
+        <v>67.06</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1584,19 +1588,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749234376-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1606,7 +1610,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distância K1200 Azul </t>
+          <t>Controle Jfa Longa Distância K1200 Preto 1200metros</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1615,16 +1619,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>78.90000000000001</v>
+        <v>63.65</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1634,14 +1638,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2749288834-controle-jfa-longa-distncia-k1200-azul-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2749259915-controle-jfa-longa-distncia-k1200-preto-1200metros-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1651,22 +1655,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Voltimetro E Sequenciador Digital Jfa Vs5hi Altabaixa Tensão</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>93.81</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>51.28</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1679,14 +1679,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:625005333#searchVariation=MLB28357019&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4395828588-voltimetro-e-sequenciador-digital-jfa-vs5hi-altabaixa-tenso-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1696,25 +1696,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto 1200metros</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 120a Bivolt</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>78.90000000000001</v>
+        <v>552.34</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1724,14 +1724,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749270202-fonte-carregador-automotivo-jfa-storm-lite-slim-120a-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1741,20 +1741,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>702.29</v>
+        <v>420.99</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1769,14 +1769,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3747472510-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749297276-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1786,25 +1786,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 60a Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Slim Caixa Bob</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>375.9</v>
+        <v>435.62</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1814,14 +1814,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3749251188-fonte-carregador-automotivo-jfa-storm-lite-slim-60a-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3141381223-fonte-carregador-jfa-bob-storm-90a-bivolt-slim-caixa-bob-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1831,18 +1831,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 40a Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Vermelho 1200metros</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>399</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>67.06</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1850,19 +1854,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3424007771-fonte-carregador-automotivo-jfa-storm-lite-slim-40a-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1869254561-controle-longa-distncia-jfa-k1200-vermelho-1200metros-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1872,25 +1876,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/verde 1200metros</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa 200a Storm</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>78.90000000000001</v>
+        <v>829.75</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1900,14 +1904,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707919647-controle-longa-distncia-jfa-k1200-pretoverde-1200metros-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166616431-fonte-automotiva-carregador-de-bateria-jfa-200a-storm-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1917,25 +1921,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distância Vermelho 1200metros</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Storm 70a</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>99.8</v>
+        <v>508.22</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1945,14 +1949,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707617120-controle-jfa-k1200-longa-distncia-vermelho-1200metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2165551904-fonte-automotiva-carregador-de-bateria-jfa-storm-70a-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1962,16 +1966,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite Slim 70a Bivolt</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>94.81</v>
+        <v>447.45</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1980,24 +1984,24 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707932792-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749238464-fonte-carregador-automotivo-jfa-storm-lite-slim-70a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2007,7 +2011,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200metros</t>
+          <t>Controle Longa Distância Jfa K1200 Preto 1200metros</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2016,33 +2020,33 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>94</v>
+        <v>59.8</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707957768-controle-longa-distncia-jfa-k1200-pretolaranja-1200metros-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1769568198-controle-longa-distncia-jfa-k1200-preto-1200metros-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2052,25 +2056,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Redline Vermelho 1200m</t>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa Storm Lite Slim 200a Bivolt </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>110.69</v>
+        <v>702.28</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2080,7 +2084,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1767940943-controle-longa-distancia-jfa-k1200-redline-vermelho-1200m-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D05d6606f-03c6-4ad3-bd5a-243ab1bcf920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3747472510-fonte-carregador-automotivo-jfa-storm-lite-slim-200a-bivolt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1069a951-a977-4e2f-a42c-b6e1e8d73976</t>
         </is>
       </c>
     </row>
